--- a/Inter_dropping_probabilities.xlsx
+++ b/Inter_dropping_probabilities.xlsx
@@ -1,37 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>eMBB</t>
+  </si>
+  <si>
+    <t>uRLLC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +60,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -353,142 +376,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>eMBB</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>uRLLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.015411426732082e-11</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.578727617380069e-15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2.696414896289081e-11</v>
+      </c>
+      <c r="C2">
+        <v>8.914809126427275e-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>1.5</v>
       </c>
-      <c r="B3" t="n">
-        <v>1.192212729874023e-09</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.085057443384353e-13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3">
+        <v>1.204055254237339</v>
+      </c>
+      <c r="C3">
+        <v>0.06865822598044748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2.172946347832488e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.18531548464009e-11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4">
+        <v>1785.736765386216</v>
+      </c>
+      <c r="C4">
+        <v>0.5605406462973029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
         <v>2.5</v>
       </c>
-      <c r="B5" t="n">
-        <v>2.078335670038699e-07</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.804395508990472e-10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>149350.5052800939</v>
+      </c>
+      <c r="C5">
+        <v>0.8448066685684309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>1.322484951034792e-06</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.243381391009244e-09</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6">
+        <v>3047650.779853798</v>
+      </c>
+      <c r="C6">
+        <v>0.9386592529813711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>3.5</v>
       </c>
-      <c r="B7" t="n">
-        <v>6.354223574954789e-06</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.587206379442933e-08</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7">
+        <v>29602333.80668685</v>
+      </c>
+      <c r="C7">
+        <v>0.9719767975512278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" t="n">
-        <v>2.486441696727994e-05</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.201352365875369e-07</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8">
+        <v>184970444.0356196</v>
+      </c>
+      <c r="C8">
+        <v>0.9856081147802566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
         <v>4.5</v>
       </c>
-      <c r="B9" t="n">
-        <v>8.320455628750007e-05</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.526656864801323e-07</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9">
+        <v>862141176.2161995</v>
+      </c>
+      <c r="C9">
+        <v>0.991911936253141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.000246189149895002</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.445387933417041e-06</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10">
+        <v>3256734903.408741</v>
+      </c>
+      <c r="C10">
+        <v>0.9951251467058755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
         <v>5.5</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.0006596305314082676</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.034097815465853e-06</v>
+      <c r="B11">
+        <v>10497239293.51691</v>
+      </c>
+      <c r="C11">
+        <v>0.9968943690435469</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Inter_dropping_probabilities.xlsx
+++ b/Inter_dropping_probabilities.xlsx
@@ -393,112 +393,112 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2.696414896289081e-11</v>
+        <v>0.006200718960659046</v>
       </c>
       <c r="C2">
-        <v>8.914809126427275e-10</v>
+        <v>0.1440637902688922</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="B3">
-        <v>1.204055254237339</v>
+        <v>0.005972496419870642</v>
       </c>
       <c r="C3">
-        <v>0.06865822598044748</v>
+        <v>0.1494175111936549</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1785.736765386216</v>
+        <v>0.005996679873657708</v>
       </c>
       <c r="C4">
-        <v>0.5605406462973029</v>
+        <v>0.1551918221312346</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="B5">
-        <v>149350.5052800939</v>
+        <v>0.006242393263344755</v>
       </c>
       <c r="C5">
-        <v>0.8448066685684309</v>
+        <v>0.1613685979228638</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>3047650.779853798</v>
+        <v>0.006670540560177247</v>
       </c>
       <c r="C6">
-        <v>0.9386592529813711</v>
+        <v>0.1679176726018013</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="B7">
-        <v>29602333.80668685</v>
+        <v>0.007235886238469779</v>
       </c>
       <c r="C7">
-        <v>0.9719767975512278</v>
+        <v>0.1748006862926486</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>184970444.0356196</v>
+        <v>0.007890872333101082</v>
       </c>
       <c r="C8">
-        <v>0.9856081147802566</v>
+        <v>0.1819743493075447</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="B9">
-        <v>862141176.2161995</v>
+        <v>0.008589440570485708</v>
       </c>
       <c r="C9">
-        <v>0.991911936253141</v>
+        <v>0.1893929205166175</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>3256734903.408741</v>
+        <v>0.00929004539020176</v>
       </c>
       <c r="C10">
-        <v>0.9951251467058755</v>
+        <v>0.1970097899946563</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="B11">
-        <v>10497239293.51691</v>
+        <v>0.009957610909009892</v>
       </c>
       <c r="C11">
-        <v>0.9968943690435469</v>
+        <v>0.2047783114384152</v>
       </c>
     </row>
   </sheetData>

--- a/Inter_dropping_probabilities.xlsx
+++ b/Inter_dropping_probabilities.xlsx
@@ -396,10 +396,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.006200718960659046</v>
+        <v>0.007604736673317878</v>
       </c>
       <c r="C2">
-        <v>0.1440637902688922</v>
+        <v>0.1727186678675138</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>2.5</v>
       </c>
       <c r="B3">
-        <v>0.005972496419870642</v>
+        <v>0.008125380819825268</v>
       </c>
       <c r="C3">
-        <v>0.1494175111936549</v>
+        <v>0.1790458754331403</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.005996679873657708</v>
+        <v>0.008804058179350087</v>
       </c>
       <c r="C4">
-        <v>0.1551918221312346</v>
+        <v>0.1858684936109446</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3.5</v>
       </c>
       <c r="B5">
-        <v>0.006242393263344755</v>
+        <v>0.009599403037043496</v>
       </c>
       <c r="C5">
-        <v>0.1613685979228638</v>
+        <v>0.1931524328706252</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.006670540560177247</v>
+        <v>0.01047188764780067</v>
       </c>
       <c r="C6">
-        <v>0.1679176726018013</v>
+        <v>0.2008652370819317</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>4.5</v>
       </c>
       <c r="B7">
-        <v>0.007235886238469779</v>
+        <v>0.01138508348244194</v>
       </c>
       <c r="C7">
-        <v>0.1748006862926486</v>
+        <v>0.208976245448793</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.007890872333101082</v>
+        <v>0.01230640840440647</v>
       </c>
       <c r="C8">
-        <v>0.1819743493075447</v>
+        <v>0.2174561947428671</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>5.5</v>
       </c>
       <c r="B9">
-        <v>0.008589440570485708</v>
+        <v>0.01320747630770279</v>
       </c>
       <c r="C9">
-        <v>0.1893929205166175</v>
+        <v>0.2262765084269434</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.00929004539020176</v>
+        <v>0.01406418029445628</v>
       </c>
       <c r="C10">
-        <v>0.1970097899946563</v>
+        <v>0.2354084954505072</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>6.5</v>
       </c>
       <c r="B11">
-        <v>0.009957610909009892</v>
+        <v>0.01485661653880945</v>
       </c>
       <c r="C11">
-        <v>0.2047783114384152</v>
+        <v>0.2448226307346951</v>
       </c>
     </row>
   </sheetData>

--- a/Inter_dropping_probabilities.xlsx
+++ b/Inter_dropping_probabilities.xlsx
@@ -393,112 +393,112 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="B2">
-        <v>0.007604736673317878</v>
+        <v>0.007201178295989472</v>
       </c>
       <c r="C2">
-        <v>0.1727186678675138</v>
+        <v>0.1616884708398142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008125380819825268</v>
+        <v>0.007283538992078411</v>
       </c>
       <c r="C3">
-        <v>0.1790458754331403</v>
+        <v>0.1669216541410958</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="B4">
-        <v>0.008804058179350087</v>
+        <v>0.007604736673317878</v>
       </c>
       <c r="C4">
-        <v>0.1858684936109446</v>
+        <v>0.1727186678676077</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0.009599403037043496</v>
+        <v>0.008125380819825268</v>
       </c>
       <c r="C5">
-        <v>0.1931524328706252</v>
+        <v>0.1790458754331395</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="B6">
-        <v>0.01047188764780067</v>
+        <v>0.008804058179350087</v>
       </c>
       <c r="C6">
-        <v>0.2008652370819317</v>
+        <v>0.1858684936109273</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>0.01138508348244194</v>
+        <v>0.009599403037043496</v>
       </c>
       <c r="C7">
-        <v>0.208976245448793</v>
+        <v>0.1931524328706383</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="B8">
-        <v>0.01230640840440647</v>
+        <v>0.01047188764780067</v>
       </c>
       <c r="C8">
-        <v>0.2174561947428671</v>
+        <v>0.2008652370819521</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0.01320747630770279</v>
+        <v>0.01138508348244194</v>
       </c>
       <c r="C9">
-        <v>0.2262765084269434</v>
+        <v>0.2089762454488429</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="B10">
-        <v>0.01406418029445628</v>
+        <v>0.01230640840440647</v>
       </c>
       <c r="C10">
-        <v>0.2354084954505072</v>
+        <v>0.2174561947426996</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>0.01485661653880945</v>
+        <v>0.01320747630770279</v>
       </c>
       <c r="C11">
-        <v>0.2448226307346951</v>
+        <v>0.2262765084269434</v>
       </c>
     </row>
   </sheetData>
